--- a/data/trans_orig/P23_2_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_2_2015-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9C2C16-0825-402C-AF33-E2CC8BE682E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8D216E-66CC-44DE-B0AC-741466E3E0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42EBE0E8-BD9F-470A-986D-8DCECC77520A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C5CAD16-637E-48CA-AE59-B4F0CCC55D72}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="319">
   <si>
     <t>Población según consumo de Hachís/Marihuana en 2015 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -93,28 +93,28 @@
     <t>83,82%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -123,28 +123,28 @@
     <t>10,18%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
   </si>
   <si>
     <t>Sí fuma pero no diariamente</t>
@@ -153,810 +153,786 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de Hachís/Marihuana en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de Hachís/Marihuana en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
     <t>99,79%</t>
   </si>
   <si>
@@ -964,9 +940,6 @@
   </si>
   <si>
     <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
   </si>
   <si>
     <t>99,31%</t>
@@ -1432,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529B29C8-D67F-47A4-B00F-ADF5834EAC90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF6FA43-704F-43FF-942A-09273D66DF7F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2035,10 +2008,10 @@
         <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2047,13 +2020,13 @@
         <v>4009</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2041,13 @@
         <v>15493</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2083,13 +2056,13 @@
         <v>5087</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -2098,13 +2071,13 @@
         <v>20580</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,7 +2133,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2178,7 +2151,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2193,7 +2166,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2223,13 +2196,13 @@
         <v>300862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>321</v>
@@ -2238,13 +2211,13 @@
         <v>324681</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>638</v>
@@ -2253,13 +2226,13 @@
         <v>625543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,13 +2247,13 @@
         <v>4145</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2289,13 +2262,13 @@
         <v>2764</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -2304,13 +2277,13 @@
         <v>6909</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2298,13 @@
         <v>2684</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2340,13 +2313,13 @@
         <v>1786</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2358,10 +2331,10 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2349,13 @@
         <v>7429</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2397,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2406,13 +2379,13 @@
         <v>7429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2501,7 +2474,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2516,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2504,13 @@
         <v>319755</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>342</v>
@@ -2546,13 +2519,13 @@
         <v>369974</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>648</v>
@@ -2618,7 +2591,7 @@
         <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2606,13 @@
         <v>13085</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2648,13 +2621,13 @@
         <v>5938</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2663,13 +2636,13 @@
         <v>19023</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2657,13 @@
         <v>7961</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2699,13 +2672,13 @@
         <v>881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2714,13 +2687,13 @@
         <v>8842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,7 +2749,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2794,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2809,7 +2782,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2824,7 +2797,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2812,13 @@
         <v>197187</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>212</v>
@@ -2854,13 +2827,13 @@
         <v>208685</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>410</v>
@@ -2869,13 +2842,13 @@
         <v>405872</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2863,13 @@
         <v>8391</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2905,13 +2878,13 @@
         <v>6285</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -2920,13 +2893,13 @@
         <v>14676</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,10 +2917,10 @@
         <v>51</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2962,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2971,13 +2944,13 @@
         <v>3809</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,10 +2998,10 @@
         <v>183</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3057,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3102,7 +3075,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3117,7 +3090,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3132,7 +3105,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3120,13 @@
         <v>243752</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>259</v>
@@ -3162,13 +3135,13 @@
         <v>269483</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>498</v>
@@ -3177,13 +3150,13 @@
         <v>513236</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3171,13 @@
         <v>9629</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3219,7 +3192,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M36" s="7">
         <v>12</v>
@@ -3228,13 +3201,13 @@
         <v>11515</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3222,13 @@
         <v>971</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3270,7 +3243,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3279,13 +3252,13 @@
         <v>971</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3273,13 @@
         <v>6696</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3315,13 +3288,13 @@
         <v>873</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -3330,13 +3303,13 @@
         <v>7568</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3365,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3410,7 +3383,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3425,7 +3398,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3440,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3428,13 @@
         <v>555566</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H41" s="7">
         <v>563</v>
@@ -3470,13 +3443,13 @@
         <v>605698</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M41" s="7">
         <v>1056</v>
@@ -3485,13 +3458,13 @@
         <v>1161264</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3479,13 @@
         <v>22404</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H42" s="7">
         <v>14</v>
@@ -3521,13 +3494,13 @@
         <v>14692</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M42" s="7">
         <v>33</v>
@@ -3536,13 +3509,13 @@
         <v>37095</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3530,13 @@
         <v>12894</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="H43" s="7">
         <v>9</v>
@@ -3572,13 +3545,13 @@
         <v>8917</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M43" s="7">
         <v>21</v>
@@ -3587,13 +3560,13 @@
         <v>21811</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3581,13 @@
         <v>14176</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3623,13 +3596,13 @@
         <v>3516</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M44" s="7">
         <v>16</v>
@@ -3638,13 +3611,13 @@
         <v>17692</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +3673,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3718,7 +3691,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3733,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3748,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3736,13 @@
         <v>713695</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H47" s="7">
         <v>733</v>
@@ -3778,13 +3751,13 @@
         <v>802796</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>253</v>
+        <v>102</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M47" s="7">
         <v>1421</v>
@@ -3793,13 +3766,13 @@
         <v>1516490</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3787,13 @@
         <v>18110</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H48" s="7">
         <v>10</v>
@@ -3832,10 +3805,10 @@
         <v>72</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="M48" s="7">
         <v>28</v>
@@ -3844,13 +3817,13 @@
         <v>28839</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3838,13 @@
         <v>11276</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -3880,13 +3853,13 @@
         <v>2034</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M49" s="7">
         <v>13</v>
@@ -3895,13 +3868,13 @@
         <v>13310</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3889,13 @@
         <v>18785</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -3931,13 +3904,13 @@
         <v>1977</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M50" s="7">
         <v>19</v>
@@ -3949,10 +3922,10 @@
         <v>72</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,7 +3999,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4041,7 +4014,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4056,7 +4029,7 @@
         <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4044,13 @@
         <v>3029955</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H53" s="7">
         <v>3141</v>
@@ -4086,13 +4059,13 @@
         <v>3341937</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M53" s="7">
         <v>6034</v>
@@ -4101,13 +4074,13 @@
         <v>6371891</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4095,13 @@
         <v>129005</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H54" s="7">
         <v>58</v>
@@ -4137,13 +4110,13 @@
         <v>57433</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="M54" s="7">
         <v>176</v>
@@ -4152,13 +4125,13 @@
         <v>186437</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>289</v>
+        <v>117</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,10 +4149,10 @@
         <v>42</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="H55" s="7">
         <v>22</v>
@@ -4188,13 +4161,13 @@
         <v>22453</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M55" s="7">
         <v>75</v>
@@ -4203,13 +4176,13 @@
         <v>77019</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4197,13 @@
         <v>80200</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="H56" s="7">
         <v>15</v>
@@ -4239,13 +4212,13 @@
         <v>15872</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="M56" s="7">
         <v>92</v>
@@ -4254,13 +4227,13 @@
         <v>96072</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,7 +4289,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4340,7 +4313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100D0BAC-4877-41E0-86DE-7D2E0E395119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA65938-34F8-46AE-8101-F600962626B0}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4357,7 +4330,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4464,10 +4437,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>54</v>
@@ -4479,10 +4452,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>54</v>
@@ -4494,10 +4467,10 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>54</v>
@@ -4521,7 +4494,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4536,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4572,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4587,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4623,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4638,7 +4611,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4674,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4689,7 +4662,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4772,10 +4745,10 @@
         <v>519297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>54</v>
@@ -4787,10 +4760,10 @@
         <v>554566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>54</v>
@@ -4802,10 +4775,10 @@
         <v>1073864</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>54</v>
@@ -4829,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4844,7 +4817,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4859,7 +4832,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4895,7 +4868,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4910,7 +4883,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4946,7 +4919,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4961,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,7 +4955,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4997,7 +4970,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5012,7 +4985,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,7 +5041,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5080,10 +5053,10 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>54</v>
@@ -5095,10 +5068,10 @@
         <v>373284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>54</v>
@@ -5110,10 +5083,10 @@
         <v>695524</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>54</v>
@@ -5137,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5152,7 +5125,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5188,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5203,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5239,7 +5212,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5254,7 +5227,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5290,7 +5263,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5305,7 +5278,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5388,10 +5361,10 @@
         <v>322240</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>54</v>
@@ -5403,10 +5376,10 @@
         <v>428556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>54</v>
@@ -5418,10 +5391,10 @@
         <v>750796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>54</v>
@@ -5445,7 +5418,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5460,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5496,7 +5469,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5511,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5547,7 +5520,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5562,7 +5535,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5598,7 +5571,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5613,7 +5586,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5684,7 +5657,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5696,10 +5669,10 @@
         <v>196748</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>54</v>
@@ -5711,10 +5684,10 @@
         <v>259513</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>54</v>
@@ -5726,10 +5699,10 @@
         <v>456260</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>54</v>
@@ -5768,7 +5741,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5783,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5834,7 +5807,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,7 +5843,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5885,7 +5858,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,7 +5894,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5936,7 +5909,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,7 +5965,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6004,10 +5977,10 @@
         <v>277223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>54</v>
@@ -6019,10 +5992,10 @@
         <v>275622</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>54</v>
@@ -6034,10 +6007,10 @@
         <v>552845</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>54</v>
@@ -6061,7 +6034,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6091,7 +6064,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,7 +6085,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6142,7 +6115,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,7 +6136,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6193,7 +6166,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6187,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6244,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,7 +6273,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -6312,10 +6285,10 @@
         <v>627754</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>54</v>
@@ -6327,10 +6300,10 @@
         <v>804203</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>54</v>
@@ -6342,10 +6315,10 @@
         <v>1431957</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>54</v>
@@ -6369,7 +6342,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -6384,7 +6357,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6399,7 +6372,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,7 +6393,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -6435,7 +6408,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6450,7 +6423,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -6486,7 +6459,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -6501,7 +6474,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,7 +6495,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -6537,7 +6510,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6552,7 +6525,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,7 +6581,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -6620,10 +6593,10 @@
         <v>859428</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>54</v>
@@ -6635,10 +6608,10 @@
         <v>868434</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>54</v>
@@ -6650,10 +6623,10 @@
         <v>1727862</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>54</v>
@@ -6677,7 +6650,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -6692,7 +6665,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -6707,7 +6680,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,7 +6701,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -6743,7 +6716,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -6758,7 +6731,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,7 +6752,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -6794,7 +6767,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -6809,7 +6782,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,7 +6803,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -6845,7 +6818,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -6860,7 +6833,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,10 +6901,10 @@
         <v>3385228</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>54</v>
@@ -6943,10 +6916,10 @@
         <v>3835581</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>54</v>
@@ -6958,10 +6931,10 @@
         <v>7220809</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>54</v>
@@ -6985,7 +6958,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7000,7 +6973,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -7015,7 +6988,7 @@
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,7 +7009,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7051,7 +7024,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -7066,7 +7039,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,7 +7060,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7102,7 +7075,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -7117,7 +7090,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,7 +7111,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7153,7 +7126,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -7168,7 +7141,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,7 +7197,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_2_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_2_2015-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8D216E-66CC-44DE-B0AC-741466E3E0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DBFEAE9-8C81-4B59-8EB6-64D25FA93F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C5CAD16-637E-48CA-AE59-B4F0CCC55D72}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{982A0BFD-D2BD-4085-9458-C3963CBFF149}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="319">
-  <si>
-    <t>Población según consumo de Hachís/Marihuana en 2015 (Tasa respuesta: 97,08%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="330">
+  <si>
+    <t>Población según consumo de Hachís/Marihuana en 2016 (Tasa respuesta: 97,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -93,28 +93,28 @@
     <t>83,82%</t>
   </si>
   <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -123,28 +123,28 @@
     <t>10,18%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>Sí fuma pero no diariamente</t>
@@ -153,793 +153,826 @@
     <t>3,01%</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de Hachís/Marihuana en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de Hachís/Marihuana en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
   </si>
   <si>
     <t>99,31%</t>
@@ -1405,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF6FA43-704F-43FF-942A-09273D66DF7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F1EFE4-2D2E-4E22-9141-FA6280D353BB}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1972,10 +2005,10 @@
         <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +2023,13 @@
         <v>1054</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2005,10 +2038,10 @@
         <v>2954</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>78</v>
@@ -2247,13 +2280,13 @@
         <v>4145</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2262,13 +2295,13 @@
         <v>2764</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -2277,13 +2310,13 @@
         <v>6909</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2331,13 @@
         <v>2684</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2313,13 +2346,13 @@
         <v>1786</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2331,10 +2364,10 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,7 +2418,7 @@
         <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2474,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2459,7 +2492,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2474,7 +2507,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2489,7 +2522,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2537,13 @@
         <v>319755</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>342</v>
@@ -2519,13 +2552,13 @@
         <v>369974</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>648</v>
@@ -2534,13 +2567,13 @@
         <v>689730</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2588,13 @@
         <v>25835</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -2570,13 +2603,13 @@
         <v>8231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2585,13 +2618,13 @@
         <v>34065</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2639,13 @@
         <v>13085</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2621,13 +2654,13 @@
         <v>5938</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2636,7 +2669,7 @@
         <v>19023</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>148</v>
@@ -2657,13 +2690,13 @@
         <v>7961</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2672,13 +2705,13 @@
         <v>881</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2690,10 +2723,10 @@
         <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,7 +2782,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2767,7 +2800,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2782,7 +2815,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2797,7 +2830,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2845,13 @@
         <v>197187</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>212</v>
@@ -2827,13 +2860,13 @@
         <v>208685</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>410</v>
@@ -2842,13 +2875,13 @@
         <v>405872</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2896,13 @@
         <v>8391</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2878,13 +2911,13 @@
         <v>6285</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -2893,13 +2926,13 @@
         <v>14676</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,10 +2950,10 @@
         <v>51</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2935,7 +2968,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2944,13 +2977,13 @@
         <v>3809</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2998,13 @@
         <v>947</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2980,13 +3013,13 @@
         <v>1719</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2995,13 +3028,13 @@
         <v>2665</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,7 +3090,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3075,7 +3108,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3090,7 +3123,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3105,7 +3138,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3153,13 @@
         <v>243752</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H35" s="7">
         <v>259</v>
@@ -3135,13 +3168,13 @@
         <v>269483</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M35" s="7">
         <v>498</v>
@@ -3150,13 +3183,13 @@
         <v>513236</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3204,13 @@
         <v>9629</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3192,7 +3225,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>12</v>
@@ -3201,13 +3234,13 @@
         <v>11515</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3255,13 @@
         <v>971</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3243,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3252,13 +3285,13 @@
         <v>971</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3306,13 @@
         <v>6696</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3288,13 +3321,13 @@
         <v>873</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -3303,13 +3336,13 @@
         <v>7568</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,7 +3398,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3383,7 +3416,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3398,7 +3431,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3413,7 +3446,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3461,13 @@
         <v>555566</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H41" s="7">
         <v>563</v>
@@ -3443,13 +3476,13 @@
         <v>605698</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M41" s="7">
         <v>1056</v>
@@ -3458,13 +3491,13 @@
         <v>1161264</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3512,13 @@
         <v>22404</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H42" s="7">
         <v>14</v>
@@ -3494,13 +3527,13 @@
         <v>14692</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="M42" s="7">
         <v>33</v>
@@ -3509,13 +3542,13 @@
         <v>37095</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3563,13 @@
         <v>12894</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="H43" s="7">
         <v>9</v>
@@ -3545,13 +3578,13 @@
         <v>8917</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M43" s="7">
         <v>21</v>
@@ -3560,13 +3593,13 @@
         <v>21811</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3614,13 @@
         <v>14176</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3599,10 +3632,10 @@
         <v>121</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M44" s="7">
         <v>16</v>
@@ -3611,13 +3644,13 @@
         <v>17692</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,7 +3706,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3691,7 +3724,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3706,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3721,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3769,13 @@
         <v>713695</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H47" s="7">
         <v>733</v>
@@ -3751,10 +3784,10 @@
         <v>802796</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>247</v>
@@ -3805,10 +3838,10 @@
         <v>72</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="M48" s="7">
         <v>28</v>
@@ -3817,13 +3850,13 @@
         <v>28839</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3871,13 @@
         <v>11276</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -3853,13 +3886,13 @@
         <v>2034</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M49" s="7">
         <v>13</v>
@@ -3868,13 +3901,13 @@
         <v>13310</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3922,13 @@
         <v>18785</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -3904,13 +3937,13 @@
         <v>1977</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="M50" s="7">
         <v>19</v>
@@ -3922,10 +3955,10 @@
         <v>72</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,7 +4032,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4014,7 +4047,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4029,7 +4062,7 @@
         <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4077,13 @@
         <v>3029955</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H53" s="7">
         <v>3141</v>
@@ -4059,13 +4092,13 @@
         <v>3341937</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M53" s="7">
         <v>6034</v>
@@ -4074,13 +4107,13 @@
         <v>6371891</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4128,13 @@
         <v>129005</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H54" s="7">
         <v>58</v>
@@ -4110,13 +4143,13 @@
         <v>57433</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="M54" s="7">
         <v>176</v>
@@ -4125,13 +4158,13 @@
         <v>186437</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>117</v>
+        <v>286</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,10 +4182,10 @@
         <v>42</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="H55" s="7">
         <v>22</v>
@@ -4161,13 +4194,13 @@
         <v>22453</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M55" s="7">
         <v>75</v>
@@ -4176,13 +4209,13 @@
         <v>77019</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4230,13 @@
         <v>80200</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="H56" s="7">
         <v>15</v>
@@ -4212,13 +4245,13 @@
         <v>15872</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="M56" s="7">
         <v>92</v>
@@ -4227,13 +4260,13 @@
         <v>96072</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,7 +4322,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4313,7 +4346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA65938-34F8-46AE-8101-F600962626B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9590EC06-245E-4AE9-BF57-B547BD0C4F77}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4330,7 +4363,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4437,10 +4470,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>54</v>
@@ -4452,10 +4485,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>54</v>
@@ -4467,10 +4500,10 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>54</v>
@@ -4509,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4524,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4575,7 +4608,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4626,7 +4659,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,7 +4695,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4677,7 +4710,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +4778,10 @@
         <v>519297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>54</v>
@@ -4760,10 +4793,10 @@
         <v>554566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>54</v>
@@ -4775,10 +4808,10 @@
         <v>1073864</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>54</v>
@@ -4802,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4817,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4832,7 +4865,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4868,7 +4901,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4883,7 +4916,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4919,7 +4952,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4934,7 +4967,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4970,7 +5003,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4985,7 +5018,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,10 +5086,10 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>54</v>
@@ -5068,10 +5101,10 @@
         <v>373284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>54</v>
@@ -5083,10 +5116,10 @@
         <v>695524</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>54</v>
@@ -5110,7 +5143,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5125,7 +5158,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5161,7 +5194,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5176,7 +5209,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5212,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5227,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5263,7 +5296,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5278,7 +5311,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5349,7 +5382,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5361,10 +5394,10 @@
         <v>322240</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>54</v>
@@ -5376,10 +5409,10 @@
         <v>428556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>54</v>
@@ -5391,10 +5424,10 @@
         <v>750796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>54</v>
@@ -5418,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5433,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5448,7 +5481,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,7 +5502,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5484,7 +5517,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5499,7 +5532,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5535,7 +5568,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5550,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5586,7 +5619,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5601,7 +5634,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,7 +5690,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5669,10 +5702,10 @@
         <v>196748</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>54</v>
@@ -5684,10 +5717,10 @@
         <v>259513</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>54</v>
@@ -5699,10 +5732,10 @@
         <v>456260</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>54</v>
@@ -5756,7 +5789,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,7 +5840,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,7 +5891,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,7 +5942,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,7 +5998,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5977,10 +6010,10 @@
         <v>277223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>54</v>
@@ -5992,10 +6025,10 @@
         <v>275622</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>54</v>
@@ -6007,10 +6040,10 @@
         <v>552845</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>54</v>
@@ -6034,7 +6067,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6064,7 +6097,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,7 +6118,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6115,7 +6148,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,7 +6169,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6166,7 +6199,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,7 +6220,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6217,7 +6250,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,7 +6306,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -6285,10 +6318,10 @@
         <v>627754</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>54</v>
@@ -6300,10 +6333,10 @@
         <v>804203</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>54</v>
@@ -6315,10 +6348,10 @@
         <v>1431957</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>54</v>
@@ -6342,7 +6375,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -6357,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6372,7 +6405,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,7 +6426,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -6408,7 +6441,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6423,7 +6456,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +6477,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -6459,7 +6492,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -6474,7 +6507,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,7 +6528,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -6510,7 +6543,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6525,7 +6558,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,7 +6614,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -6593,10 +6626,10 @@
         <v>859428</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>54</v>
@@ -6608,10 +6641,10 @@
         <v>868434</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>54</v>
@@ -6623,10 +6656,10 @@
         <v>1727862</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>54</v>
@@ -6650,7 +6683,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -6665,7 +6698,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -6680,7 +6713,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,7 +6734,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -6716,7 +6749,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -6731,7 +6764,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,7 +6785,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -6767,7 +6800,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -6782,7 +6815,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,7 +6836,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -6818,7 +6851,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -6833,7 +6866,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,10 +6934,10 @@
         <v>3385228</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>54</v>
@@ -6916,10 +6949,10 @@
         <v>3835581</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>54</v>
@@ -6928,13 +6961,13 @@
         <v>8743</v>
       </c>
       <c r="N52" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>54</v>
@@ -6958,7 +6991,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -6973,7 +7006,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -6988,7 +7021,7 @@
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,7 +7042,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7024,7 +7057,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -7039,7 +7072,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,7 +7093,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7075,7 +7108,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -7090,7 +7123,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,7 +7144,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7126,7 +7159,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -7141,7 +7174,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,7 +7216,7 @@
         <v>8743</v>
       </c>
       <c r="N57" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>54</v>
@@ -7197,7 +7230,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
